--- a/data_temp finalisé.xlsx
+++ b/data_temp finalisé.xlsx
@@ -600,21 +600,11 @@
           <t>[47.658236, -2.760847]</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>316.496</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34.97</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34.97</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>[49.5584879, -1.840117]</t>
@@ -661,21 +651,11 @@
           <t>[47.658236, -2.760847]</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>207.218</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>[48.563464, -4.597181]</t>
@@ -722,21 +702,11 @@
           <t>[47.658236, -2.760847]</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>346.918</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>38.33</v>
-      </c>
-      <c r="L5" t="n">
-        <v>38.33</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>[49.66707400000001, -1.844943]</t>
